--- a/database/capsules_spreadsheets/Summer 2022 Capsules.xlsx
+++ b/database/capsules_spreadsheets/Summer 2022 Capsules.xlsx
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="138">
   <si>
     <t>title</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>public notes</t>
+  </si>
+  <si>
+    <t>ticketing url</t>
   </si>
   <si>
     <t>slot</t>
@@ -1070,8 +1073,8 @@
     <col customWidth="1" min="13" max="14" width="12.75"/>
     <col customWidth="1" min="15" max="15" width="9.0"/>
     <col customWidth="1" min="16" max="16" width="7.5"/>
-    <col customWidth="1" min="17" max="18" width="39.13"/>
-    <col customWidth="1" min="19" max="19" width="10.75"/>
+    <col customWidth="1" min="17" max="19" width="39.13"/>
+    <col customWidth="1" min="20" max="20" width="10.75"/>
   </cols>
   <sheetData>
     <row r="1" ht="33.75" customHeight="1">
@@ -1132,38 +1135,41 @@
       <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="2" ht="65.25" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B2" s="5">
-        <f t="shared" ref="B2:B11" si="1">len(H2)</f>
+        <f t="shared" ref="B2:B22" si="1">len(H2)</f>
         <v>495</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G2" s="10">
         <v>1990.0</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K2" s="14">
         <v>42457.0</v>
@@ -1178,38 +1184,39 @@
       <c r="Q2" s="18"/>
       <c r="R2" s="18"/>
       <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
     </row>
     <row r="3" ht="101.25" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" s="5">
         <f t="shared" si="1"/>
         <v>477</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G3" s="20">
         <v>1934.0</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J3" s="19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K3" s="14">
         <v>42458.0</v>
@@ -1224,38 +1231,39 @@
       <c r="Q3" s="22"/>
       <c r="R3" s="22"/>
       <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
     </row>
     <row r="4">
       <c r="A4" s="23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B4" s="24">
         <f t="shared" si="1"/>
         <v>454</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G4" s="29">
         <v>1949.0</v>
       </c>
       <c r="H4" s="30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I4" s="31" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J4" s="26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K4" s="32">
         <v>44728.0</v>
@@ -1273,41 +1281,42 @@
       <c r="P4" s="17"/>
       <c r="Q4" s="27"/>
       <c r="R4" s="27"/>
-      <c r="S4" s="36" t="s">
-        <v>40</v>
+      <c r="S4" s="27"/>
+      <c r="T4" s="36" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="37" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B5" s="24">
         <f t="shared" si="1"/>
         <v>458</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D5" s="39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E5" s="40" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F5" s="41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G5" s="42">
         <v>1966.0</v>
       </c>
       <c r="H5" s="41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I5" s="42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J5" s="37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K5" s="32">
         <v>44729.0</v>
@@ -1325,41 +1334,42 @@
       <c r="P5" s="17"/>
       <c r="Q5" s="22"/>
       <c r="R5" s="22"/>
-      <c r="S5" s="36" t="s">
-        <v>47</v>
+      <c r="S5" s="22"/>
+      <c r="T5" s="36" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B6" s="24">
         <f t="shared" si="1"/>
         <v>453</v>
       </c>
       <c r="C6" s="46" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E6" s="40" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F6" s="28" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G6" s="42">
         <v>1943.0</v>
       </c>
       <c r="H6" s="40" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I6" s="42" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J6" s="37" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K6" s="32">
         <v>44735.0</v>
@@ -1377,43 +1387,44 @@
       <c r="P6" s="48"/>
       <c r="Q6" s="22"/>
       <c r="R6" s="49" t="s">
-        <v>53</v>
-      </c>
-      <c r="S6" s="36" t="s">
-        <v>40</v>
+        <v>54</v>
+      </c>
+      <c r="S6" s="49"/>
+      <c r="T6" s="36" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B7" s="24">
         <f t="shared" si="1"/>
         <v>450</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D7" s="37" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E7" s="40" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F7" s="41" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G7" s="42">
         <v>1998.0</v>
       </c>
       <c r="H7" s="41" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I7" s="42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J7" s="50" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K7" s="32">
         <v>44736.0</v>
@@ -1430,44 +1441,45 @@
       <c r="O7" s="45"/>
       <c r="P7" s="17"/>
       <c r="Q7" s="51" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R7" s="52"/>
-      <c r="S7" s="36" t="s">
-        <v>47</v>
+      <c r="S7" s="52"/>
+      <c r="T7" s="36" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B8" s="24">
         <f t="shared" si="1"/>
         <v>459</v>
       </c>
       <c r="C8" s="46" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D8" s="37" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E8" s="40" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F8" s="28" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G8" s="42">
         <v>1970.0</v>
       </c>
       <c r="H8" s="41" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I8" s="42" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J8" s="37" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K8" s="32">
         <v>44742.0</v>
@@ -1484,44 +1496,45 @@
       <c r="O8" s="17"/>
       <c r="P8" s="17"/>
       <c r="Q8" s="49" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="R8" s="22"/>
-      <c r="S8" s="36" t="s">
-        <v>40</v>
+      <c r="S8" s="22"/>
+      <c r="T8" s="36" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="39" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B9" s="24">
         <f t="shared" si="1"/>
         <v>456</v>
       </c>
       <c r="C9" s="46" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E9" s="40" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G9" s="42">
         <v>2018.0</v>
       </c>
       <c r="H9" s="41" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I9" s="42" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J9" s="37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K9" s="32">
         <v>44743.0</v>
@@ -1539,41 +1552,42 @@
       <c r="P9" s="17"/>
       <c r="Q9" s="22"/>
       <c r="R9" s="22"/>
-      <c r="S9" s="36" t="s">
-        <v>47</v>
+      <c r="S9" s="22"/>
+      <c r="T9" s="36" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="55" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B10" s="24">
         <f t="shared" si="1"/>
         <v>460</v>
       </c>
       <c r="C10" s="56" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D10" s="55" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E10" s="57" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F10" s="58" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G10" s="59">
         <v>1937.0</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I10" s="59" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J10" s="55" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K10" s="60">
         <v>44749.0</v>
@@ -1591,41 +1605,42 @@
       <c r="P10" s="17"/>
       <c r="Q10" s="22"/>
       <c r="R10" s="22"/>
-      <c r="S10" s="36" t="s">
-        <v>40</v>
+      <c r="S10" s="22"/>
+      <c r="T10" s="36" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="37" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B11" s="24">
         <f t="shared" si="1"/>
         <v>455</v>
       </c>
       <c r="C11" s="46" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D11" s="37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E11" s="40" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F11" s="28" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G11" s="42">
         <v>2021.0</v>
       </c>
       <c r="H11" s="41" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I11" s="42" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J11" s="42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K11" s="32">
         <v>44750.0</v>
@@ -1643,38 +1658,42 @@
       <c r="P11" s="17"/>
       <c r="Q11" s="18"/>
       <c r="R11" s="18"/>
-      <c r="S11" s="36" t="s">
-        <v>47</v>
+      <c r="S11" s="18"/>
+      <c r="T11" s="36" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="B12" s="24"/>
+        <v>81</v>
+      </c>
+      <c r="B12" s="24">
+        <f t="shared" si="1"/>
+        <v>638</v>
+      </c>
       <c r="C12" s="46" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D12" s="37" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E12" s="40" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F12" s="28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G12" s="42">
         <v>2021.0</v>
       </c>
       <c r="H12" s="41" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I12" s="42" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J12" s="42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K12" s="32">
         <v>44751.0</v>
@@ -1688,43 +1707,44 @@
       <c r="P12" s="17"/>
       <c r="Q12" s="18"/>
       <c r="R12" s="49" t="s">
-        <v>84</v>
-      </c>
-      <c r="S12" s="36" t="s">
         <v>85</v>
+      </c>
+      <c r="S12" s="49"/>
+      <c r="T12" s="36" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="37" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B13" s="24">
-        <f t="shared" ref="B13:B22" si="2">len(H13)</f>
+        <f t="shared" si="1"/>
         <v>448</v>
       </c>
       <c r="C13" s="40" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D13" s="37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E13" s="40" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F13" s="28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G13" s="42">
         <v>1928.0</v>
       </c>
       <c r="H13" s="41" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I13" s="42" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J13" s="37" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K13" s="32">
         <v>44756.0</v>
@@ -1742,41 +1762,42 @@
       <c r="P13" s="63"/>
       <c r="Q13" s="22"/>
       <c r="R13" s="22"/>
-      <c r="S13" s="36" t="s">
-        <v>40</v>
+      <c r="S13" s="22"/>
+      <c r="T13" s="36" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="40" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B14" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>457</v>
       </c>
       <c r="C14" s="46" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E14" s="40" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F14" s="41" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G14" s="42">
         <v>1967.0</v>
       </c>
       <c r="H14" s="30" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I14" s="42" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J14" s="37" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K14" s="32">
         <v>44757.0</v>
@@ -1794,41 +1815,42 @@
       <c r="P14" s="64"/>
       <c r="Q14" s="52"/>
       <c r="R14" s="52"/>
-      <c r="S14" s="36" t="s">
-        <v>47</v>
+      <c r="S14" s="52"/>
+      <c r="T14" s="36" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="37" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B15" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>442</v>
       </c>
       <c r="C15" s="46" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D15" s="37" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E15" s="40" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F15" s="37" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G15" s="42">
         <v>1948.0</v>
       </c>
       <c r="H15" s="41" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I15" s="42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J15" s="37" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K15" s="32">
         <v>44763.0</v>
@@ -1846,43 +1868,44 @@
       <c r="P15" s="17"/>
       <c r="Q15" s="22"/>
       <c r="R15" s="49" t="s">
-        <v>65</v>
-      </c>
-      <c r="S15" s="36" t="s">
-        <v>40</v>
+        <v>66</v>
+      </c>
+      <c r="S15" s="49"/>
+      <c r="T15" s="36" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="39" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B16" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>453</v>
       </c>
       <c r="C16" s="46" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E16" s="40" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F16" s="37" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G16" s="42">
         <v>1971.0</v>
       </c>
       <c r="H16" s="41" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I16" s="42" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J16" s="50" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K16" s="32">
         <v>44764.0</v>
@@ -1900,41 +1923,42 @@
       <c r="P16" s="17"/>
       <c r="Q16" s="27"/>
       <c r="R16" s="27"/>
-      <c r="S16" s="36" t="s">
-        <v>47</v>
+      <c r="S16" s="27"/>
+      <c r="T16" s="36" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="17" ht="18.0" customHeight="1">
       <c r="A17" s="37" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B17" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>450</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D17" s="37" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E17" s="40" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F17" s="28" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G17" s="42">
         <v>1933.0</v>
       </c>
       <c r="H17" s="27" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I17" s="42" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J17" s="37" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K17" s="32">
         <v>44770.0</v>
@@ -1952,43 +1976,44 @@
       <c r="P17" s="63"/>
       <c r="Q17" s="22"/>
       <c r="R17" s="49" t="s">
-        <v>65</v>
-      </c>
-      <c r="S17" s="36" t="s">
-        <v>40</v>
+        <v>66</v>
+      </c>
+      <c r="S17" s="49"/>
+      <c r="T17" s="36" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="37" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B18" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>458</v>
       </c>
       <c r="C18" s="40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" s="37" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E18" s="40" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F18" s="37" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G18" s="42">
         <v>2009.0</v>
       </c>
       <c r="H18" s="41" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I18" s="42" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J18" s="37" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K18" s="32">
         <v>44771.0</v>
@@ -2006,41 +2031,42 @@
       <c r="P18" s="63"/>
       <c r="Q18" s="22"/>
       <c r="R18" s="22"/>
-      <c r="S18" s="36" t="s">
-        <v>47</v>
+      <c r="S18" s="22"/>
+      <c r="T18" s="36" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="37" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B19" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>452</v>
       </c>
       <c r="C19" s="46" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" s="37" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E19" s="40" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F19" s="28" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G19" s="42">
         <v>1925.0</v>
       </c>
       <c r="H19" s="41" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I19" s="42" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J19" s="37" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K19" s="32">
         <v>44777.0</v>
@@ -2058,43 +2084,44 @@
       <c r="P19" s="17"/>
       <c r="Q19" s="22"/>
       <c r="R19" s="49" t="s">
-        <v>65</v>
-      </c>
-      <c r="S19" s="36" t="s">
-        <v>40</v>
+        <v>66</v>
+      </c>
+      <c r="S19" s="49"/>
+      <c r="T19" s="36" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="28" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B20" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>458</v>
       </c>
       <c r="C20" s="46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D20" s="37" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E20" s="40" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F20" s="37" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G20" s="42">
         <v>1974.0</v>
       </c>
       <c r="H20" s="30" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I20" s="42" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J20" s="50" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K20" s="32">
         <v>44778.0</v>
@@ -2112,41 +2139,42 @@
       <c r="P20" s="17"/>
       <c r="Q20" s="22"/>
       <c r="R20" s="22"/>
-      <c r="S20" s="36" t="s">
-        <v>47</v>
+      <c r="S20" s="22"/>
+      <c r="T20" s="36" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="37" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B21" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>448</v>
       </c>
       <c r="C21" s="46" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D21" s="37" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E21" s="40" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F21" s="28" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G21" s="42">
         <v>1919.0</v>
       </c>
       <c r="H21" s="41" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I21" s="42" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J21" s="37" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K21" s="32">
         <v>44784.0</v>
@@ -2164,43 +2192,44 @@
       <c r="P21" s="17"/>
       <c r="Q21" s="27"/>
       <c r="R21" s="49" t="s">
-        <v>65</v>
-      </c>
-      <c r="S21" s="36" t="s">
-        <v>40</v>
+        <v>66</v>
+      </c>
+      <c r="S21" s="49"/>
+      <c r="T21" s="36" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="37" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B22" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>460</v>
       </c>
       <c r="C22" s="46" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D22" s="46" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E22" s="40" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F22" s="28" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G22" s="42">
         <v>1978.0</v>
       </c>
       <c r="H22" s="41" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I22" s="42" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J22" s="37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K22" s="32">
         <v>44785.0</v>
@@ -2218,8 +2247,9 @@
       <c r="P22" s="17"/>
       <c r="Q22" s="22"/>
       <c r="R22" s="22"/>
-      <c r="S22" s="36" t="s">
-        <v>47</v>
+      <c r="S22" s="22"/>
+      <c r="T22" s="36" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -2299,13 +2329,13 @@
   <sheetData>
     <row r="1" ht="33.75" customHeight="1">
       <c r="A1" s="66" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B1" s="66" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C1" s="66" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D1" s="67" t="s">
         <v>3</v>
@@ -2314,13 +2344,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="66" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G1" s="66" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H1" s="66" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I1" s="67"/>
       <c r="J1" s="67"/>
@@ -2336,29 +2366,29 @@
     </row>
     <row r="2" ht="65.25" customHeight="1">
       <c r="A2" s="69" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B2" s="70">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(F2="""","""",COUNTA(SPLIT(F2,"" "")))"),107.0)</f>
         <v>107</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D2" s="71" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F2" s="72" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G2" s="73" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H2" s="74" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I2" s="73"/>
       <c r="J2" s="69"/>
@@ -2374,20 +2404,20 @@
     </row>
     <row r="3">
       <c r="A3" s="80" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B3" s="70" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(F3="""","""",COUNTA(SPLIT(F3,"" "")))"),"")</f>
         <v/>
       </c>
       <c r="C3" s="81" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D3" s="82"/>
       <c r="E3" s="46"/>
       <c r="F3" s="83"/>
       <c r="G3" s="84" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H3" s="85"/>
       <c r="I3" s="84"/>
@@ -2404,20 +2434,20 @@
     </row>
     <row r="4">
       <c r="A4" s="81" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B4" s="70" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(F4="""","""",COUNTA(SPLIT(F4,"" "")))"),"")</f>
         <v/>
       </c>
       <c r="C4" s="94" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D4" s="86"/>
       <c r="E4" s="46"/>
       <c r="F4" s="95"/>
       <c r="G4" s="84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H4" s="46"/>
       <c r="I4" s="84"/>
@@ -2434,7 +2464,7 @@
     </row>
     <row r="5">
       <c r="A5" s="80" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B5" s="70" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(F5="""","""",COUNTA(SPLIT(F5,"" "")))"),"")</f>
@@ -2445,7 +2475,7 @@
       <c r="E5" s="46"/>
       <c r="F5" s="98"/>
       <c r="G5" s="84" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H5" s="83"/>
       <c r="I5" s="84"/>
